--- a/src/main/resources/devices/wokwi/JuryButtons.xlsx
+++ b/src/main/resources/devices/wokwi/JuryButtons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\juryButtons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\wokwi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497E05C-ECA0-4E3A-9DD1-E9E790B6B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D6307-92A0-42A7-A8D6-453EABC2BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Jury" sheetId="2" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Summon All</t>
   </si>
   <si>
-    <t>Summon TC</t>
-  </si>
-  <si>
     <t>Deliberate</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>controller</t>
-  </si>
-  <si>
     <t>deliberation</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Resume Competition</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>challenge</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +584,7 @@
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>1</v>
@@ -628,15 +628,15 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -645,15 +645,15 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -679,15 +679,15 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -696,15 +696,15 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -713,15 +713,15 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -730,10 +730,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -748,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <v>11</v>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2">
         <v>2</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4">
         <v>16</v>
@@ -841,12 +841,12 @@
         <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4">
         <v>17</v>
@@ -859,12 +859,12 @@
         <v>13</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4">
         <v>18</v>
@@ -877,12 +877,12 @@
         <v>13</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4">
         <v>19</v>
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
